--- a/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Итоговая_ведомость_ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3).xlsx
+++ b/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Итоговая_ведомость_ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3).xlsx
@@ -61,13 +61,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +485,1271 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Айдогдыев Бегенч_80465_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как выжимка основных преимуществ использования ИИ в образовании. Стиль изложения сухой и формальный, что характерно для AI. Отсутствие конкретики и личного мнения также указывает на возможную AI-генерацию.</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четко сформулирована, направление применения ИИ указано и связано с темой. Аргументация выбора представлена, ожидаемые результаты описаны. Текст демонстрирует понимание темы и цели исследования. Признаков AI-генерации, достаточных для отклонения, не обнаружено. Рекомендация: можно добавить конкретные примеры использования NLP для анализа ответов студентов (например, какие метрики будут использоваться, какие типы ошибок планируется выявлять).
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Айдогдыев Бегенч_80465_assignsubmission_file/results/2_ЗАДАНИЕ.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Аманова Бибимеръем_74952_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет структуру, характерную для ответа, сгенерированного ИИ. Он логичен, хорошо структурирован, но лишен индивидуальности и содержит общие фразы, часто встречающиеся в ответах чат-ботов. Отсутствуют какие-либо ошибки или нелогичности, что также может указывать на AI-генерацию.</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям к заданию. Тема четко сформулирована, направление применения ИИ указано, аргументация выбора представлена, ожидаемые результаты описаны. Текст демонстрирует понимание темы и содержит конкретные примеры. Признаки AI-генерации не выражены, стиль изложения естественный. Рекомендации: можно было бы добавить больше конкретики в описание ожидаемых результатов, например, указать, какие именно типы вопросов будут автоматизированы или какие инструменты персонализации поддержки планируется использовать.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Аманова Бибимеръем_74952_assignsubmission_file/results/2_ЗАДАНИЕ.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Бакшун Дмитрий Иванович_77784_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой скорее конспект или план ответа на вопрос, чем полноценный текст, сгенерированный ИИ. Отсутствуют характерные для AI клише и академический стиль. Наличие опечаток и небрежностей также снижает вероятность AI-генерации.</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема сформулирована, направление применения указано, аргументация выбора присутствует (хоть и краткая), ожидаемые результаты описаны. Текст демонстрирует понимание темы и признаки самостоятельности. Объем текста достаточен. Признаков AI-генерации не выявлено.</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Бакшун Дмитрий Иванович_77784_assignsubmission_file/results/Задание_2.pdf.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Бирюкова Ольга Александровна_78190_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет признаки, указывающие на человеческое происхождение. В частности, использование разговорных фраз, таких как "Ой, а если получиться создать интеллектуального помощника/ассистента…. Будет просто замечательно!", а также наличие сокращений ("и т.д.") и неформального стиля изложения, не характерны для сгенерированного ИИ текста. Структура текста соответствует шаблону, но содержание не демонстрирует явных признаков AI-генерации.</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема сформулирована, направление применения ИИ указано, аргументация выбора присутствует и содержит конкретные примеры (подготовка раздаточного материала, рутинные расчеты). Ожидаемый результат описан, включая создание учебных проектов и, возможно, интеллектуального помощника. Текст демонстрирует понимание темы и содержит личные рассуждения (например, "Надеюсь, что технологии ИИ нам помогут", "Ой, а если получиться создать интеллектуального помощника/ассистента…. Будет просто замечательно!"). Признаков AI-генерации, достаточных для дисквалификации, не обнаружено.</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Бирюкова Ольга Александровна_78190_assignsubmission_file/results/Бирюкова_задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Боженюк Александр Витальевич_77545_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой краткое описание темы и аргументацию выбора, написанное в достаточно простом стиле. Хотя структура текста несколько формальна (разделение на пункты), в нем нет явных признаков AI-генерации, таких как шаблонные фразы или энциклопедический стиль. Наличие грамматических и пунктуационных ошибок также снижает вероятность AI-генерации.</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям к заданию. Тема четко сформулирована, указано направление применения ИИ, аргументация выбора понятна и связана с профессиональной деятельностью студента, описан ожидаемый результат. Текст демонстрирует признаки самостоятельности и понимания темы, содержит личные рассуждения. Объем текста достаточен. Признаков AI-генерации, достаточных для отклонения работы, не обнаружено.</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Боженюк Александр Витальевич_77545_assignsubmission_file/results/Боженюк_выполнения_задания2.pdf.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Бондарь Сергей Алексеевич_77895_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит достаточно естественно. Хотя в нем есть некоторые обобщения, присутствуют и конкретные примеры (проверка курсовых у 90 студентов заняла три недели), что снижает вероятность AI-генерации. Использование фразы "отнимает силы от главного" добавляет личный оттенок. Отсутствуют явные признаки шаблонности или энциклопедического стиля.</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четкая, направление применения ИИ указано, аргументация выбора подкреплена личным опытом и конкретными примерами (проверка курсовых работ у 90 студентов). Ожидаемые результаты описаны достаточно конкретно, включая количественные показатели (сокращение времени на проверку, снижение количества ошибок). Текст демонстрирует понимание темы и цели исследования. Признаков AI-генерации, достаточных для дисквалификации, не обнаружено.</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Бондарь Сергей Алексеевич_77895_assignsubmission_file/results/Задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Буи А Боя Бертран Фредерик_22660_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Да (высокая)</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет все признаки академической работы, созданной с использованием AI. Стиль, структура и используемые фразы типичны для ответов, генерируемых большими языковыми моделями.</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Представленный текст имеет признаки AI-генерации: идеальная структура, академический стиль, отсутствие личных рассуждений и конкретных примеров, а также повторение типичных фраз. Текст выглядит как фрагмент диссертации, а не как самостоятельная работа студента, выполняющего задание по шаблону. Рекомендуется переработать текст, добавив личные рассуждения, примеры и обоснования, а также упростить стиль изложения.
+Причина: высокая уверенность детекции AI-генерации.</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Буи А Боя Бертран Фредерик_22660_assignsubmission_file/results/ИИ_в_образовании_и_науке.pdf.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Гаврилюк Екатерина Вадимовна Вадимовна_74982_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой скорее конспект или тезисы, чем полноценный текст, с элементами разговорного стиля ("если не идёшь на преподавателя, то есть ещё вариант работать на заказ"). Отсутствуют характерные для AI клише и академический стиль. Хотя текст лаконичен и содержит обобщения, этого недостаточно для уверенного определения как AI-сгенерированного.</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям к заданию. Тема сформулирована, направление применения указано, аргументация выбора присутствует, хотя и довольно общая. Ожидаемые результаты описаны. Текст демонстрирует признаки самостоятельности, хоть и не отличается глубиной проработки. Признаков AI-генерации не выявлено.</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Гаврилюк Екатерина Вадимовна Вадимовна_74982_assignsubmission_file/results/Шаблон_для_выполнения_задания.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Гуляев Никита Андреевич_77779_assignsubmission_onlinetext</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как выдержка из отчета или презентации. Он логичен и структурирован, но лишен индивидуальности и конкретики. Использование общих фраз и отсутствие деталей указывают на возможную AI-генерацию.</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям к заданию. Тема сформулирована, направление применения указано, аргументация выбора присутствует и логична, ожидаемый результат описан. Текст демонстрирует понимание темы и содержит конкретные примеры, что свидетельствует о самостоятельности. Объем текста достаточен. Признаки AI-генерации не выражены.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Гуляев Никита Андреевич_77779_assignsubmission_onlinetext/results/onlinetext.html.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Денисенко Максим Евгеньевич_76330_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Текст содержит конкретные примеры использования ИИ в образовании (Python, Arduino, схемы светодиодов), что снижает вероятность полной AI-генерации. Есть личные формулировки и размышления автора, что также не характерно для шаблонных ответов ИИ. Хотя текст хорошо структурирован, это не является достаточным основанием для определения AI-генерации.</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Работа содержит четкую тему, направление применения ИИ, аргументацию выбора с конкретными примерами и описание ожидаемых результатов. Текст демонстрирует понимание темы и содержит личные рассуждения. Признаки AI-генерации не выявлены. Рекомендация: продолжить углубленное изучение темы и рассмотреть возможные ограничения и этические аспекты использования ИИ в образовании.</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Денисенко Максим Евгеньевич_76330_assignsubmission_file/results/Задание_2._Денисенко_М.Е._попытка_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Донская Марина Сергеевна_48055_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет признаки AI-генерации, особенно в структуре и стиле изложения. Хотя он и не содержит явных клише, характерных для ChatGPT, общая структура и отсутствие конкретики указывают на то, что он мог быть сгенерирован ИИ на основе заданных параметров.</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема сформулирована, направление применения ИИ указано, аргументация выбора присутствует и содержит конкретные примеры из практики. Ожидаемый результат описан. Текст демонстрирует понимание темы и признаки самостоятельности, несмотря на некоторую шаблонность в формулировках. Объем текста достаточен. Признаки AI-генерации не выражены.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Донская Марина Сергеевна_48055_assignsubmission_file/results/Шаблон_для_выполнения_задания.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Дорошенко Илья Сергеевич Сергеевич_74961_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит достаточно естественно. Хотя он и структурирован, что ожидаемо для шаблона, в нем есть личные обоснования выбора темы и конкретные примеры использования ИИ (ChatGPT и GAMMA). Отсутствуют явные клише, характерные для AI-генерации. Оценка 'низкая', так как нельзя полностью исключить использование ИИ для помощи в написании, но явных признаков нет.</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четко сформулирована, указано направление применения ИИ, аргументация выбора темы представлена личными рассуждениями и конкретными примерами (использование ChatGPT и GAMMA), описаны ожидаемые результаты и способы их измерения. Текст демонстрирует понимание темы и признаки самостоятельности. Признаков AI-генерации, достаточных для дисквалификации, не обнаружено.</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Дорошенко Илья Сергеевич Сергеевич_74961_assignsubmission_file/results/Задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Золотухин Кирилл Витальевич_78702_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Да (высокая)</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой структурированный ответ, типичный для заданий, выполняемых ИИ. Он лишен индивидуальности и содержит общие фразы, указывающие на вероятную генерацию ИИ.</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям к заданию. Тема четко сформулирована, направление применения ИИ указано, аргументация выбора присутствует и связана с профессиональной деятельностью студента. Ожидаемые результаты описаны конкретно. Объем текста достаточен. Признаков AI-генерации, достаточных для вынесения решения "не зачтено", не обнаружено. Текст демонстрирует понимание темы и цели исследования.
+Причина: высокая уверенность детекции AI-генерации.</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Золотухин Кирилл Витальевич_78702_assignsubmission_file/results/Шаблон_для_выполнения_задания.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Каймакан Эльмира Бекировна_77787_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Да (высокая)</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет структуру, характерную для ответа, сгенерированного ИИ. Он представляет собой перечисление пунктов и аргументов, написанных в обобщенной и формальной манере. Отсутствуют какие-либо личные наблюдения, примеры из практики или индивидуальный стиль, что делает вероятным его создание с помощью ИИ.</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Работа не зачтена. Тема сформулирована, направление применения указано, аргументация и ожидаемый результат присутствуют. Однако, текст выглядит слишком общим и шаблонным. Аргументация сводится к перечислению очевидных возможностей ИИ без конкретики и личного осмысления. Ожидаемые результаты также сформулированы в виде общих фраз («повышение мотивации», «снижение стресса»). Отсутствуют признаки самостоятельного мышления и понимания темы на глубоком уровне. Текст имеет признаки AI-генерации: идеальная структура, отсутствие ошибок, повтор типичных фраз, монотонный стиль. Рекомендация: переработать текст, добавив конкретные примеры использования ИИ в химическом образовании, личные рассуждения и более глубокий анализ проблемы.
+Причина: высокая уверенность детекции AI-генерации.</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Каймакан Эльмира Бекировна_77787_assignsubmission_file/results/Каймакан_Э.Б._задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Кравцова Наталья Евгеньевна_63485_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Да (высокая)</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой шаблон, заполненный очень общими фразами. Отсутствует какая-либо конкретика или индивидуальный стиль. Формулировки очень типичны для ответов, сгенерированных ИИ, особенно в контексте образовательных тем.</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Работа не зачтена. Текст демонстрирует признаки AI-генерации: идеальная структура, отсутствие личных рассуждений, шаблонные фразы ("модернизация образовательных кейсов", "подготовка современных учебно-методических ресурсов"). Аргументация выбора слабая и не содержит конкретики. Ожидаемые результаты описаны в общих чертах. Рекомендуется переработать работу, добавив конкретные примеры и личные рассуждения о том, как именно ИИ может быть использован для разработки видеоматериалов и презентаций, а также как повышение квалификации в области ИИ поможет в модернизации образовательных ресурсов.
+Причина: высокая уверенность детекции AI-генерации.</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Кравцова Наталья Евгеньевна_63485_assignsubmission_file/results/Задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Кулакова Ирина Савельевна_77439_assignsubmission_onlinetext</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как набросок или черновик, написанный человеком, знакомым с темой. Есть нумерация пунктов, что может указывать на структуру, предложенную AI, но стиль изложения и наличие конкретных деталей (например, упоминание отелей в Сочи) говорят против AI-генерации. Отсутствуют характерные клише и академический стиль.</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Работа содержит четкую тему, понятное направление применения ИИ (автоматизация бронирования и оценка персонала), аргументацию, основанную на личном опыте (загруженность сотрудников, сложность оценки), и описание ожидаемых результатов (инструменты автоматизации, оценка знаний). Текст демонстрирует понимание проблемы и содержит конкретные примеры (отели Сочи). Признаков AI-генерации не выявлено. Рекомендация: конкретизировать, какие именно инструменты ИИ планируется использовать и как будет реализована интеграция с существующими системами.</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Кулакова Ирина Савельевна_77439_assignsubmission_onlinetext/results/onlinetext.html.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Кулыева Айдженнет_74951_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как ответ, сгенерированный для заполнения шаблона. Аргументация логична, но лишена индивидуальности и конкретики, что характерно для AI-генерации, особенно при работе с шаблонами.</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четкая, направление применения указано, аргументация выбора присутствует и подкреплена конкретными примерами из личного опыта. Ожидаемый результат описан достаточно конкретно. Текст демонстрирует понимание темы и признаки самостоятельности. Признаков AI-генерации, достаточных для отклонения, не обнаружено. Рекомендация: можно было бы добавить больше деталей о конкретных проблемах, которые решает использование ИИ в подготовке презентаций, и о том, как именно планируется оценивать эффективность использования этих инструментов.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Кулыева Айдженнет_74951_assignsubmission_file/results/Шаблон_для_выполнения_задания.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Лень Яна Игоревна_76328_assignsubmission_onlinetext</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как тезисы или конспект. Присутствуют личные выражения (например, "прогресс буквально 'летит'", "научная гонка"), что не характерно для сгенерированного текста. Хотя текст структурирован, он не демонстрирует явных признаков шаблонности или энциклопедического стиля, характерных для AI.</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Работа содержит все необходимые элементы: тема, направление, аргументация и ожидаемый результат. Аргументация выбора темы подкреплена личным опытом и пониманием проблемы. Текст демонстрирует признаки самостоятельности и понимания темы. Признаков AI-генерации не выявлено.</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Лень Яна Игоревна_76328_assignsubmission_onlinetext/results/onlinetext.html.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Макареня Татьяна Анатольевна_78093_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как краткое описание проекта или обоснование использования ИИ. Хотя он структурирован и лаконичен, в нем нет явных признаков AI-генерации, таких как шаблонные фразы или энциклопедический стиль. Наличие личного обоснования («Работаю в образовании, и часто уходит много времени…») скорее указывает на то, что текст написан человеком.</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема сформулирована, направление применения указано, аргументация выбора присутствует и связана с личным опытом, ожидаемые результаты описаны. Текст демонстрирует понимание темы и содержит признаки самостоятельности (указание на личный опыт работы в образовании). Несмотря на упоминание GigaChat, текст не выглядит сгенерированным, так как присутствуют конкретные примеры и личные рассуждения. Рекомендация: в дальнейшем более подробно раскрывать ожидаемые результаты и возможные проблемы при внедрении ИИ в образовательный процесс.</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Макареня Татьяна Анатольевна_78093_assignsubmission_file/results/Предлагаем_пример_кратко_заполненного_шаблона.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Маро Екатерина Александровна_77890_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет признаки AI-генерации из-за академического стиля, использования клише и отсутствия конкретных примеров. Структура текста, явно следующая шаблону, также указывает на возможность использования AI для его создания.</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Работа демонстрирует понимание темы и цели исследования. Тема четко сформулирована, направление применения ИИ конкретно указано, аргументация выбора достаточно убедительна, а ожидаемые результаты реалистичны. Присутствует логическая связь между пунктами. Текст содержит конкретные примеры и не выглядит как сгенерированный AI. Объем текста достаточен. Дополнительно отмечено изменение ландшафта угроз, что показывает понимание актуальности темы.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Маро Екатерина Александровна_77890_assignsubmission_file/results/задание_2_ИИ.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Морошных Елена Николаевна_74981_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Текст содержит грамматические ошибки ("ща которий период времени"), разговорные обороты ("чтоб я могла понять"), что не характерно для AI. Структура текста соответствует шаблону, но это не является достаточным основанием для определения AI-генерации. Отсутствуют характерные клише AI.</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Работа не зачтена. Хотя все формальные критерии выполнены (тема, направление, аргументация, результат), текст демонстрирует недостаточную проработку и понимание темы. Ожидаемый результат (изучение десятков диссертаций за день) нереалистичен и указывает на поверхностное понимание процесса исследования. Аргументация выбора хоть и присутствует, но сформулирована слишком просто и не демонстрирует глубокого анализа проблемы. Присутствуют признаки спешки и недостаточной самостоятельности в формулировках.</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Морошных Елена Николаевна_74981_assignsubmission_file/results/Мор_2задание.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Олейников Константин Анатольевич_78289_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как набросок или черновик, написанный человеком. Он содержит элементы, характерные для заполнения шаблона (нумерация пунктов, указание темы и направления). Хотя текст достаточно структурирован, в нем нет явных признаков AI-генерации, таких как клише или чрезмерная обобщенность. Наличие личного опыта («Работаю в образовательном учреждении и часто сталкиваюсь с проблемой...») также указывает на то, что текст, скорее всего, написан человеком.</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четко сформулирована, направление применения ИИ указано, аргументация выбора обоснована личным опытом и потребностями, ожидаемые результаты описаны. Текст демонстрирует понимание темы и содержит конкретные примеры. Признаков AI-генерации, достаточных для дисквалификации, не обнаружено.</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Олейников Константин Анатольевич_78289_assignsubmission_file/results/Шаблон_для_выполнения_задания_1_.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Подколзина Ирина Николаевна_78516_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой, скорее, структуру или план ответа, а не полноценный текст. Он состоит из пунктов и подпунктов, что не является типичным для сгенерированного AI текста. Отсутствуют признаки, указывающие на AI-генерацию, такие как клише или обобщения. Это, скорее, конспект или черновик.</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Работа не зачтена. Текст слишком краткий и состоит из общих фраз. Аргументация выбора и описание ожидаемого результата поверхностны и не демонстрируют глубокого понимания темы. Отсутствуют личные рассуждения, конкретные примеры или естественные ошибки. Текст выглядит шаблонным. Рекомендуется расширить описание темы, направления применения, аргументации выбора и ожидаемых результатов, добавив конкретики и личных размышлений.</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Подколзина Ирина Николаевна_78516_assignsubmission_file/results/задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Поленов Максим Юрьевич_77888_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как ответ на формализованный запрос. Хотя в нем и есть упоминание о работе преподавателем, аргументация и ожидаемый результат сформулированы достаточно общими фразами, характерными для AI. Отсутствует индивидуальный стиль и конкретика, которые обычно присутствуют в текстах, написанных человеком, описывающим свой опыт.</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четко сформулирована, направление применения ИИ указано, аргументация выбора представлена с личным опытом, ожидаемые результаты описаны. Текст демонстрирует понимание темы и содержит признаки самостоятельности (указание конкретных инструментов, личный опыт работы преподавателем). Признаков AI-генерации, достаточных для отклонения, не обнаружено.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Поленов Максим Юрьевич_77888_assignsubmission_file/results/Поленов_М.Ю._Задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Попов Кирилл Романович_78703_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой скорее набросок или план, чем полноценный текст, с элементами разговорного стиля (например, "как фишка и удобство"). Присутствуют некоторые грамматические неточности и упрощения, что не характерно для AI-генерации. Хотя структура текста шаблонная (в виде пунктов), это скорее связано с форматом задания, чем с использованием AI.</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям к заданию. Тема сформулирована, направление применения указано, аргументация выбора присутствует (хоть и выражена в личных мотивах), ожидаемый результат описан. Текст демонстрирует понимание темы и содержит личные рассуждения. Признаков AI-генерации не выявлено. Рекомендация: в будущем старайтесь более развернуто аргументировать выбор темы, опираясь не только на личные интересы, но и на актуальность и значимость проблемы.</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Попов Кирилл Романович_78703_assignsubmission_file/results/дз.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Прокопенко Андрей Геннадьевич_76310_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как конспект или план, созданный с использованием ИИ. Он содержит общие формулировки и не хватает индивидуального стиля или конкретных деталей, характерных для человеческого письма. Особенно подозрительна структура и лаконичность пунктов 'ожидаемый результат'.</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Работа в целом соответствует требованиям. Тема сформулирована, направление применения указано (хотя и довольно обще), аргументация выбора присутствует, хоть и требует большей конкретики. Ожидаемые результаты описаны. Текст не выглядит идеально гладким, есть признаки самостоятельности. Рекомендуется в дальнейшем более четко формулировать цели и задачи исследования, а также более детально описывать ожидаемые результаты.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Прокопенко Андрей Геннадьевич_76310_assignsubmission_file/results/Задание_2_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Проценко Александра Сергеевна_48546_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Текст демонстрирует признаки AI-генерации, особенно в структуре аргументации и обобщенных формулировках. Хотя текст и не содержит явных грамматических ошибок, его стиль и структура указывают на использование ИИ для создания или редактирования.</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Работа содержит все необходимые элементы: тема, направление, аргументация и ожидаемый результат. Аргументация подкреплена личным опытом, что свидетельствует о понимании темы. Присутствуют орфографические ошибки ("Я являются"), что говорит о самостоятельности работы. Текст не выглядит сгенерированным AI, так как есть конкретные примеры и личные рассуждения. Объем текста достаточен.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Проценко Александра Сергеевна_48546_assignsubmission_file/results/Проценко_А.С._Задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Путырская Виктория Владимировна_76316_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет признаки, указывающие на возможную помощь ИИ, но не является явно сгенерированным. Структура текста соответствует заданию, но стиль изложения достаточно простой и содержит некоторые разговорные элементы (например, "А так ИИ помогает ускорить процесс"), что не характерно для полностью сгенерированного текста. Отсутствуют клише, типичные для AI. Однако, некоторая обобщенность и отсутствие конкретных примеров могут указывать на использование ИИ для генерации идей или формулировок.</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Работа зачтена. Тема сформулирована, направление применения указано (использование ИИ для создания презентаций). Аргументация выбора присутствует и основана на личном опыте студента. Ожидаемые результаты описаны. Текст демонстрирует признаки самостоятельности и понимания темы, хотя и написан простым языком. Признаков AI-генерации, достаточных для отклонения работы, не обнаружено. Рекомендация: в дальнейшем стараться более глубоко раскрывать тему и использовать более научный стиль изложения.</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Путырская Виктория Владимировна_76316_assignsubmission_file/results/задание_2_.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Скиртач Ирина Анатольевна_59892_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет признаки, которые могли бы указывать на AI-генерацию, но они не являются достаточно явными. Например, структура текста (разделение на пункты) и некоторые формулировки в разделе "ожидаемый результат" (например, "повысится качество научных работ") звучат несколько шаблонно. Однако, наличие конкретных деталей, таких как упоминание ChatGPT и chat.deepseek, а также описание личного опыта тестирования, говорит в пользу того, что текст написан человеком. Отсутствуют явные клише, характерные для AI, и присутствует личное мнение автора.</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четко сформулирована, направление применения ИИ указано, аргументация выбора представлена с конкретными примерами из личной практики, ожидаемые результаты описаны. Текст демонстрирует понимание темы и самостоятельность мышления. Наличие личного опыта тестирования различных чат-ботов и упоминание проблемы "галлюцинаций" ИИ добавляет ценности работе. Признаков AI-генерации, достаточных для отклонения, не обнаружено.</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Скиртач Ирина Анатольевна_59892_assignsubmission_file/results/ответ_на_2_зд.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Склярова Елена Константиновна_77889_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой шаблон для заполнения, что объясняет его структурированность и отсутствие эмоциональной окраски. Хотя некоторые формулировки кажутся обобщенными, они уместны в контексте описания целей и задач использования ИИ в научной работе. Отсутствуют явные признаки, указывающие на генерацию текста ИИ.</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четко сформулирована, направление применения ИИ указано конкретно (поиск, перевод, классификация). Аргументация выбора обоснована профессиональной деятельностью и потребностями в оптимизации работы с источниками. Ожидаемые результаты описаны, хотя и несколько общо. Текст демонстрирует понимание темы и самостоятельность, содержит конкретные примеры инструментов ИИ и их предполагаемого использования. Признаков AI-генерации, достаточных для дисквалификации, не обнаружено.</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Склярова Елена Константиновна_77889_assignsubmission_file/results/Задание_1.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Суковатицына Наталия Леонидовна_75707_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Да (высокая)</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой краткий план или тезисы, характерные для машинной генерации. Отсутствует какая-либо индивидуальность или детализация, что указывает на использование ИИ для создания структуры документа.</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям к заданию. Тема сформулирована, направление применения ИИ указано, аргументация выбора представлена, ожидаемый результат описан. Объем текста достаточен. Признаков AI-генерации не выявлено. Рекомендация: можно добавить больше конкретики в описание ожидаемых результатов, например, какие именно практические навыки планируется освоить с учениками.
+Причина: высокая уверенность детекции AI-генерации.</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Суковатицына Наталия Леонидовна_75707_assignsubmission_file/results/Шаблон_для_выполнения_задания_2_.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Тахиров Шухрат Шавкатович_49996_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Да (средняя)</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет структуру шаблона, что само по себе не является признаком AI, но в сочетании с обобщенными формулировками и отсутствием личных наблюдений, указывает на возможную генерацию ИИ. Особенно подозрительны фразы, описывающие ожидаемый результат, которые звучат как типичные заявления о пользе ИИ.</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>Работа не зачтена. Тема сформулирована, но аргументация выбора и ожидаемый результат представлены общими фразами, характерными для AI-генерации. Отсутствуют конкретные примеры, личные рассуждения или детали, демонстрирующие понимание проблемы. Текст выглядит шаблонным и не отражает самостоятельной работы. Рекомендуется переработать аргументацию, добавив конкретные примеры и личное видение проблемы, а также более четко сформулировать ожидаемые результаты.
+ЗАМЕЧАНИЕ: возможные признаки AI-генерации (уверенность не высокая).</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Тахиров Шухрат Шавкатович_49996_assignsubmission_file/results/Тахиров_Ш._ДЗ_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Терешков Владимир Васильевич_77790_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой шаблон ответа на задание. Хотя он структурирован и лаконичен, в нем нет явных признаков AI-генерации. Наличие личной информации (ФИО исполнителя, описание работы с 'реальной железной аппаратурой') скорее указывает на то, что текст написан человеком. Отсутствуют характерные для AI клише и обобщения.</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Работа содержит все необходимые элементы: тема, направление, аргументация и ожидаемый результат. Аргументация выбора достаточно конкретна и отражает личный опыт студента. Ожидаемые результаты также четко сформулированы. Признаков AI-генерации не выявлено. Рекомендация: в дальнейшем можно более подробно раскрывать тему и приводить больше конкретных примеров.</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Терешков Владимир Васильевич_77790_assignsubmission_file/results/Шаблон_для_выполнения_задания.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Тулупчи Наталья Викторовна_63066_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Да (высокая)</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой типичный шаблон ответа, который мог быть сгенерирован ИИ. Он структурирован, лаконичен и лишен каких-либо индивидуальных особенностей или деталей, что указывает на его искусственное происхождение.</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Работа не зачтена. Тема сформулирована, направление применения указано, аргументация выбора и ожидаемый результат присутствуют. Однако, текст очень краткий, состоит из общих фраз и не демонстрирует глубокого понимания темы. Отсутствуют личные рассуждения, конкретные примеры или детали, которые могли бы свидетельствовать о самостоятельной работе. Текст выглядит шаблонным и поверхностным. Не хватает конкретики в описании того, как именно ИИ будет применяться для подбора упражнений и как это приведет к увеличению моторной плотности урока и снижению травматизма. Рекомендация: расширить описание, добавить конкретные примеры и детали, демонстрирующие понимание темы и самостоятельность мышления.
+Причина: высокая уверенность детекции AI-генерации.</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Тулупчи Наталья Викторовна_63066_assignsubmission_file/results/Тулупчи_Н.В._Задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Хмелевской Даниил Олегович_77432_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Да (высокая)</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Текст имеет все признаки AI-генерации. Он структурирован, логичен, но лишен индивидуальности и содержит типичные для AI-ответов фразы и обобщения. Формат изложения и отсутствие личного мнения также указывают на использование ИИ.</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема четкая, направление применения указано, аргументация выбора присутствует и логична, ожидаемые результаты описаны. Текст демонстрирует понимание темы и цели исследования. Признаков AI-генерации, достаточных для дисквалификации, не обнаружено. Рекомендация: конкретизировать, какие именно методы и алгоритмы ИИ планируется использовать, а также более детально описать критерии оценки эффективности разработанной системы.
+Причина: высокая уверенность детекции AI-генерации.</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Хмелевской Даниил Олегович_77432_assignsubmission_file/results/Задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Хурда Светлана Викторовна_74947_assignsubmission_onlinetext</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой скорее тезисы или краткое описание проекта, чем полноценный текст, сгенерированный ИИ. Хотя он и структурирован, в нем нет явных признаков шаблонности или академического стиля, характерных для AI-генерации. Отсутствуют клише и обобщения без конкретики. Скорее, это конспект, написанный человеком.</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Работа соответствует требованиям. Тема сформулирована, направление применения указано, есть обоснование выбора, описание ожидаемых результатов. Текст демонстрирует понимание темы и содержит личные рассуждения, что говорит о самостоятельности. Признаков AI-генерации не выявлено. Рекомендация: в дальнейшем более подробно раскрывать ожидаемые результаты и возможные проблемы при внедрении.</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Хурда Светлана Викторовна_74947_assignsubmission_onlinetext/results/onlinetext.html.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Шляк Илья Валерьевич_77887_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>не зачтено</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Текст представляет собой короткие тезисы, а не развернутое эссе. Хотя структура и лаконичность могут навести на мысль об использовании ИИ, наличие личного опыта (фраза "так как из личного опыта могу сказать") и отсутствие характерных клише делают маловероятным, что текст был сгенерирован ИИ. Скорее, это просто конспект или набросок.</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>Работа не зачтена. Тема сформулирована слишком общо. Аргументация выбора хоть и содержит личный опыт, но недостаточно развернута и конкретна. Ожидаемый результат также сформулирован неконкретно. Текст демонстрирует признаки поверхностного понимания темы и не содержит достаточной глубины анализа. Объем текста соответствует требованиям, но содержание оставляет желать лучшего. Рекомендация: более четко формулировать тему, углубиться в аргументацию выбора, конкретизировать ожидаемые результаты.</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Шляк Илья Валерьевич_77887_assignsubmission_file/results/Шаблон_для_выполнения_задания.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Эпова Надежда Павловна_75681_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как описание проекта или заявка на грант. Хотя стиль достаточно формальный и академичный, в нем нет явных признаков AI-генерации, таких как клише или неестественная структура. Наличие конкретных деталей (например, название сайта Добро.рф, количество лекций и семинаров) скорее указывает на то, что текст написан человеком, знакомым с темой.</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Работа демонстрирует понимание темы и задачи. Четко сформулирована тема, указано направление применения ИИ, приведена аргументация выбора и описаны ожидаемые результаты. Текст содержит конкретные примеры и детали, что свидетельствует о самостоятельности мышления. Присутствуют признаки, указывающие на знакомство с контекстом и проблематикой. Рекомендация: продолжить углубление в выбранную тему и более четко структурировать аргументацию.</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Эпова Надежда Павловна_75681_assignsubmission_file/results/Эпова_Н.П._задание_2.docx.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Ященко Анна Александровна_78315_assignsubmission_file</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>зачтено</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Текст выглядит как тезисы или наброски к более развернутому эссе. Он достаточно лаконичен и содержит личное наблюдение ("Я учусь...", "Когда я пробовала..."), что снижает вероятность AI-генерации. Отсутствуют характерные для AI клише и шаблонные фразы. Стиль изложения простой и понятный, что больше похоже на конспект, чем на сгенерированный текст.</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Работа зачтена. Тема сформулирована четко, направление применения ИИ указано. Аргументация выбора подкреплена личным опытом и конкретными примерами (сложности ИИ с двумя языками, метафорами и идиомами). Ожидаемый результат понятен. Текст демонстрирует признаки самостоятельности и понимания темы, содержит личные рассуждения. Признаков AI-генерации не выявлено.</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>/Users/maksim/git_projects/sfedu_check_02/test_run/ИИ_в_образовании_и_науке_Задание_№2_Исследование_применения_технологий (3)/Ященко Анна Александровна_78315_assignsubmission_file/results/Задание.docx.json</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
